--- a/import/6_List_sv_TA.xlsx
+++ b/import/6_List_sv_TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F7323-6CC2-469D-834A-D56C82C52443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E4AB86-6CB4-40D5-94BF-C601EAB291DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45B5C5C9-3BF2-4C64-AE03-389D727FBC36}"/>
   </bookViews>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FBB38A-0C57-4117-B337-58746EA6ECF8}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
